--- a/REGULAR/CCR/BOFILL, ERNA.xlsx
+++ b/REGULAR/CCR/BOFILL, ERNA.xlsx
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="362" uniqueCount="246">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="366" uniqueCount="248">
   <si>
     <t>PERIOD</t>
   </si>
@@ -772,6 +772,12 @@
   </si>
   <si>
     <t>8/30,31/2023</t>
+  </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>12/13,21,22,26,27/2023</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1028,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1168,9 +1174,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -3190,7 +3193,7 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K422" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K423" totalsRowShown="0" headerRowDxfId="24" headerRowBorderDxfId="23" tableBorderDxfId="22" totalsRowBorderDxfId="21">
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="20"/>
     <tableColumn id="2" name="PARTICULARS" dataDxfId="19"/>
@@ -3568,12 +3571,12 @@
   <sheetPr codeName="Sheet2">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K422"/>
+  <dimension ref="A2:K423"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="98" zoomScaleNormal="98" workbookViewId="0">
-      <pane ySplit="3660" topLeftCell="A404" activePane="bottomLeft"/>
+      <pane ySplit="3660" topLeftCell="A403" activePane="bottomLeft"/>
       <selection activeCell="I9" sqref="I9"/>
-      <selection pane="bottomLeft" activeCell="I416" sqref="I416"/>
+      <selection pane="bottomLeft" activeCell="K420" sqref="K420"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3595,62 +3598,62 @@
       <c r="A2" s="29" t="s">
         <v>9</v>
       </c>
-      <c r="B2" s="53" t="s">
+      <c r="B2" s="52" t="s">
         <v>50</v>
       </c>
-      <c r="C2" s="53"/>
+      <c r="C2" s="52"/>
       <c r="D2" s="21" t="s">
         <v>14</v>
       </c>
       <c r="E2" s="10"/>
-      <c r="F2" s="60"/>
-      <c r="G2" s="60"/>
+      <c r="F2" s="59"/>
+      <c r="G2" s="59"/>
       <c r="H2" s="28" t="s">
         <v>10</v>
       </c>
       <c r="I2" s="25"/>
-      <c r="J2" s="54"/>
-      <c r="K2" s="55"/>
+      <c r="J2" s="53"/>
+      <c r="K2" s="54"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>15</v>
       </c>
-      <c r="B3" s="53"/>
-      <c r="C3" s="53"/>
+      <c r="B3" s="52"/>
+      <c r="C3" s="52"/>
       <c r="D3" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="F3" s="61"/>
-      <c r="G3" s="58"/>
+      <c r="F3" s="60"/>
+      <c r="G3" s="57"/>
       <c r="H3" s="26" t="s">
         <v>11</v>
       </c>
       <c r="I3" s="26"/>
-      <c r="J3" s="56"/>
-      <c r="K3" s="57"/>
+      <c r="J3" s="55"/>
+      <c r="K3" s="56"/>
     </row>
     <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="52" t="s">
         <v>51</v>
       </c>
-      <c r="C4" s="53"/>
+      <c r="C4" s="52"/>
       <c r="D4" s="22" t="s">
         <v>12</v>
       </c>
-      <c r="F4" s="58" t="s">
+      <c r="F4" s="57" t="s">
         <v>223</v>
       </c>
-      <c r="G4" s="58"/>
+      <c r="G4" s="57"/>
       <c r="H4" s="26" t="s">
         <v>17</v>
       </c>
       <c r="I4" s="26"/>
-      <c r="J4" s="58"/>
-      <c r="K4" s="59"/>
+      <c r="J4" s="57"/>
+      <c r="K4" s="58"/>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
@@ -3676,18 +3679,18 @@
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="51" t="s">
         <v>8</v>
       </c>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
-      <c r="F7" s="52"/>
-      <c r="G7" s="52" t="s">
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
+      <c r="F7" s="51"/>
+      <c r="G7" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
-      <c r="J7" s="52"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
+      <c r="J7" s="51"/>
       <c r="K7" s="14"/>
     </row>
     <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
@@ -3734,7 +3737,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>102.87299999999999</v>
+        <v>101.62299999999999</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -3744,7 +3747,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>258.56</v>
+        <v>261.31</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -12600,13 +12603,15 @@
         <v>45170</v>
       </c>
       <c r="B417" s="20"/>
-      <c r="C417" s="13"/>
+      <c r="C417" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D417" s="39"/>
       <c r="E417" s="9"/>
       <c r="F417" s="20"/>
-      <c r="G417" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G417" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H417" s="39"/>
       <c r="I417" s="9"/>
@@ -12614,15 +12619,19 @@
       <c r="K417" s="20"/>
     </row>
     <row r="418" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A418" s="40"/>
+      <c r="A418" s="40">
+        <v>45200</v>
+      </c>
       <c r="B418" s="20"/>
-      <c r="C418" s="13"/>
+      <c r="C418" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D418" s="39"/>
       <c r="E418" s="9"/>
       <c r="F418" s="20"/>
-      <c r="G418" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G418" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H418" s="39"/>
       <c r="I418" s="9"/>
@@ -12630,26 +12639,42 @@
       <c r="K418" s="20"/>
     </row>
     <row r="419" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A419" s="40"/>
-      <c r="B419" s="20"/>
-      <c r="C419" s="13"/>
+      <c r="A419" s="40">
+        <v>45231</v>
+      </c>
+      <c r="B419" s="20" t="s">
+        <v>91</v>
+      </c>
+      <c r="C419" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D419" s="39"/>
       <c r="E419" s="9"/>
       <c r="F419" s="20"/>
-      <c r="G419" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H419" s="39"/>
+      <c r="G419" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H419" s="39">
+        <v>1</v>
+      </c>
       <c r="I419" s="9"/>
       <c r="J419" s="11"/>
-      <c r="K419" s="20"/>
+      <c r="K419" s="47">
+        <v>45254</v>
+      </c>
     </row>
     <row r="420" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A420" s="40"/>
-      <c r="B420" s="20"/>
+      <c r="A420" s="40">
+        <v>45261</v>
+      </c>
+      <c r="B420" s="20" t="s">
+        <v>105</v>
+      </c>
       <c r="C420" s="13"/>
-      <c r="D420" s="39"/>
+      <c r="D420" s="39">
+        <v>5</v>
+      </c>
       <c r="E420" s="9"/>
       <c r="F420" s="20"/>
       <c r="G420" s="13" t="str">
@@ -12659,10 +12684,14 @@
       <c r="H420" s="39"/>
       <c r="I420" s="9"/>
       <c r="J420" s="11"/>
-      <c r="K420" s="20"/>
+      <c r="K420" s="20" t="s">
+        <v>247</v>
+      </c>
     </row>
     <row r="421" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A421" s="40"/>
+      <c r="A421" s="46" t="s">
+        <v>246</v>
+      </c>
       <c r="B421" s="20"/>
       <c r="C421" s="13"/>
       <c r="D421" s="39"/>
@@ -12678,20 +12707,40 @@
       <c r="K421" s="20"/>
     </row>
     <row r="422" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A422" s="51"/>
-      <c r="B422" s="15"/>
-      <c r="C422" s="41"/>
-      <c r="D422" s="42"/>
+      <c r="A422" s="40">
+        <v>45292</v>
+      </c>
+      <c r="B422" s="20"/>
+      <c r="C422" s="13"/>
+      <c r="D422" s="39"/>
       <c r="E422" s="9"/>
-      <c r="F422" s="15"/>
-      <c r="G422" s="41" t="str">
+      <c r="F422" s="20"/>
+      <c r="G422" s="13" t="str">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v/>
       </c>
-      <c r="H422" s="42"/>
+      <c r="H422" s="39"/>
       <c r="I422" s="9"/>
-      <c r="J422" s="12"/>
-      <c r="K422" s="15"/>
+      <c r="J422" s="11"/>
+      <c r="K422" s="20"/>
+    </row>
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A423" s="40">
+        <v>45323</v>
+      </c>
+      <c r="B423" s="15"/>
+      <c r="C423" s="41"/>
+      <c r="D423" s="42"/>
+      <c r="E423" s="9"/>
+      <c r="F423" s="15"/>
+      <c r="G423" s="41" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H423" s="42"/>
+      <c r="I423" s="9"/>
+      <c r="J423" s="12"/>
+      <c r="K423" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -12757,17 +12806,17 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="D1" s="62" t="s">
+      <c r="D1" s="61" t="s">
         <v>33</v>
       </c>
-      <c r="E1" s="62"/>
-      <c r="F1" s="62"/>
-      <c r="G1" s="62"/>
-      <c r="J1" s="63" t="s">
+      <c r="E1" s="61"/>
+      <c r="F1" s="61"/>
+      <c r="G1" s="61"/>
+      <c r="J1" s="62" t="s">
         <v>34</v>
       </c>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
+      <c r="K1" s="62"/>
+      <c r="L1" s="62"/>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
@@ -12853,17 +12902,17 @@
         <v>30</v>
       </c>
       <c r="G6" s="43"/>
-      <c r="I6" s="63" t="s">
+      <c r="I6" s="62" t="s">
         <v>38</v>
       </c>
-      <c r="J6" s="63"/>
-      <c r="K6" s="63"/>
-      <c r="L6" s="63"/>
+      <c r="J6" s="62"/>
+      <c r="K6" s="62"/>
+      <c r="L6" s="62"/>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>361.43299999999999</v>
+        <v>362.93299999999999</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
